--- a/data/financial_statements/socf/IVZ.xlsx
+++ b/data/financial_statements/socf/IVZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,2437 +596,2452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-624700000</v>
+      </c>
+      <c r="C2">
         <v>168300000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>218900000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>237500000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>557100000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>545600000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495100000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>371600000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>330800000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>294700000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>62000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>120000000</v>
-      </c>
-      <c r="M2">
-        <v>242600000</v>
       </c>
       <c r="N2">
         <v>242600000</v>
       </c>
       <c r="O2">
+        <v>242600000</v>
+      </c>
+      <c r="P2">
         <v>62000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>190600000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>94800000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>281200000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>241900000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>265200000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>422600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>274600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>249600000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>214200000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>218100000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>255900000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>236500000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>157800000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>194800000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>241300000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>244000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>284000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>225900000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>251600000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>316800000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>206800000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>330800000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>248700000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>203700000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>199600000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>47900000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>49300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>49500000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50400000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>51000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>52800000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>51100000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>53200000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>51600000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>50300000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>48400000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>52500000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>48500000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>40300000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>36300000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>36500000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>39600000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>32400000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>33600000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>34600000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>29700000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>26200000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>26300000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>25700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>25600000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>25200000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>24700000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>25000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>22600000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>23300000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>22700000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>22000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>21600000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>22400000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>23400000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>22400000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>21800000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>21900000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>22300000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>111000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>59300000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>51500000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-67100000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-62900000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-120200000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-10000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>32600000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-48900000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>217500000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>179500000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>115200000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>52700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>72800000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>54200000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>85900000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>29600000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>45000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-3100000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>38500000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-8400000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>28200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>182300000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>77600000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>32800000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-18800000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>91300000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>9600000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>16800000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>27000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-40700000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>86500000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>16900000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-10800000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-4500000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-89800000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>500000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>45900000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>34200000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>212600000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>371600000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>137700000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>329900000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1161200000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2347200000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1742900000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>943700000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>409200000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1168200000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1223300000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>413700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>663700000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>577200000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-720300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1225100000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-135800000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-171300000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>26400000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-285100000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-809800000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-1166800000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-1157700000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-1134700000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-433600000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-830400000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-993500000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-321500000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-2118500000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-417000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-1632900000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-32000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>168900000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>118200000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-520900000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>117300000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1500000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-105300000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-606600000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-97500000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-172700000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-127000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-245400000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-40800000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-5100000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-130300000</v>
-      </c>
-      <c r="I6">
-        <v>-11900000</v>
       </c>
       <c r="J6">
         <v>-11900000</v>
       </c>
       <c r="K6">
+        <v>-11900000</v>
+      </c>
+      <c r="L6">
         <v>-11800000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-12600000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-35400000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-93500000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-28100000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-56400000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-112400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-237800000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6300000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3200000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-64800000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-31900000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-157300000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-88500000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-355300000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-13400000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-35200000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-83300000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-470200000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>15100000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-493300000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-770100000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-573500000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1065200000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-2218700000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2018100000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-720900000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-261400000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1088300000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-1742100000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-344600000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-578300000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-232300000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>406300000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-1205100000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>294400000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>290700000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-377500000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>250800000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>954500000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1279300000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>956100000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1190200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>574400000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>959500000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>679800000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>451800000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2206600000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>545900000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1312700000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>45800000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-42500000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-109500000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>272100000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-32900000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>153600000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>180200000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>353800000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>15100000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-493300000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-770100000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-573500000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-1065200000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-2218700000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-2018100000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-720900000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-261400000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1088300000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1742100000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-328300000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9">
         <v>-57300000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-95200000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>86300000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>216800000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-270800000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>82800000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>600000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-158600000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>49300000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>455200000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-196100000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-143900000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-89100000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-76000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>34600000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>90000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>45500000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-55100000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12100000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-43400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-34100000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-59900000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-31500000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-60000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>106500000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3300000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-13800000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-24100000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-31100000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>41900000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-5900000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-11800000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-18900000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-2500000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-6200000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-15600000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-16200000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>4200000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4700000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-3700000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-900000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>8800000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-2700000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-6600000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1300000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-22800000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-13600000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-2700000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-400000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-17700000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>456500000</v>
+      </c>
+      <c r="C11">
         <v>492000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>123100000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-375400000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3700000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>601000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>507700000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-26900000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>567600000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>401800000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>337900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-77000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>447300000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>321900000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>467800000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-120400000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>166700000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>265300000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>449000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-52200000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>384800000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>389800000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>256700000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>126500000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>72200000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>368200000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>245800000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-32200000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>572800000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>97100000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>514800000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-56300000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>183000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>467100000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>769500000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-219200000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>190300000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>334300000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>740200000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-484600000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-62700000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-33200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-23900000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-35600000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-26000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-26900000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-20300000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-41400000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-26400000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-28000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-19200000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-48700000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-26600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-27900000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-21100000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-34200000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-22100000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-25600000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-20600000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-29000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-22800000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-32800000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-27100000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-46400000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-36000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-39300000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-26000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-36400000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-37700000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-27400000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-23000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-46500000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-36900000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-28400000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-21400000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-21200000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-26700000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-22200000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-18100000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13">
         <v>-38200000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-11200000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>339900000</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>-1469300000</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>-299200000</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>-88700000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-33200000</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>60800000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>136300000</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>-1200000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14">
         <v>-8300000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-81800000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-45000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-13700000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>200000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>32500000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-1500000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3100000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-800000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>24600000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>6900000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-24500000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>200000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>26200000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-45900000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>8500000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-98700000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-4500000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-25100000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>22900000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-19200200</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-43499900</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-59900000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-211099600</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-338399900</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-56900300</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-110900000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3399900</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-86399900</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-284400100</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-382700000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-595200000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-142000100</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-570699900</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-309700000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-131500000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-829600000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-24600000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-277400000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-442699700</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-240400200</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>136299900</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-16700000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-173599700</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-265500100</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-246200000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-51000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-138099900</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-78600200</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-10799900</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-319000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-331300000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-469100100</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-411799900</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-531600000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-237399900</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>90700000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-176300100</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>141600100</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-300000</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>4700000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-13100000</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>-8700000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7400000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>26800000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>21400000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-50100000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>18600000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>12800000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>42400000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-63800000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-130600000</v>
+      </c>
+      <c r="C17">
         <v>-82200000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-76700000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-79100000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-259800000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-364400000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-83800000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-139900000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-30600000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-86000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-291000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-452000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-663500000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-235000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-200900000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-333400000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-215800000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-865400000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-1519700000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-297800000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-471700000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-562400000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>103500000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-43800000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-254100000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-269000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-375700000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-107100000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-175300000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-91700000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-31300000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-366500000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-377600000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-479800000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-425300000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-544500000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-221000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>59500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-224800000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>146400000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-216300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-430200000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>96900000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>134099800</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>514200100</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>40500000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>225800000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-58500000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-179200000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>131100000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>583500000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>512600100</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>536699900</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>80500000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>68600000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>67400000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>708600000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>922100000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>51100000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>477299800</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>422799900</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-340499900</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-186000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>555200000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>318500000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>358200000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-46800000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>280400000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>430100000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-66400000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>370100000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>440200000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>414800000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-134400000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>553900000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>620599900</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-39200000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-219900000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>524100000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-5700000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1900000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-232500000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-2800000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-10500000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>114100000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-161700000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-6400000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-5800000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>187200000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-222100000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-14400000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-311600000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-65200000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-78600000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-2100000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-2800000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-7600000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-39300000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-5200000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1300000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-4800000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-52500000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-110300000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-180700000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-82400000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-161600000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-288100000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-175000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-81000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-75900000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-47600000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-46600000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-46300000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-118100000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-345100000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2200000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-69900000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-39800000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-144900000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-144800000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-137000000</v>
-      </c>
-      <c r="E20">
-        <v>-138000000</v>
       </c>
       <c r="F20">
         <v>-138000000</v>
       </c>
       <c r="G20">
+        <v>-138000000</v>
+      </c>
+      <c r="H20">
         <v>-137800000</v>
-      </c>
-      <c r="H20">
-        <v>-130700000</v>
       </c>
       <c r="I20">
         <v>-130700000</v>
       </c>
       <c r="J20">
+        <v>-130700000</v>
+      </c>
+      <c r="K20">
         <v>-130600000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-132800000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-200100000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-200000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-207200000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-125400000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-120100000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-122300000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-124300000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-124400000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-119600000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-118900000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-119000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-118900000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-114800000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-114100000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-115700000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-117600000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-113000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-113700000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-116200000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-116500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-108100000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-108300000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-108600000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-109100000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-98000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-100500000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-100800000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-101200000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-77200000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>101100000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>99200000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>217300000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>109800000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-6600000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-499500000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>204400000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>140000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>14000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-210500000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-65000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>43300000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>17900000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>21100000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>43100000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>12900000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>207700000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>49400000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>63200000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>36600000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>64600000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>100000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>129600000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>162500000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>30900000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>15100000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>71900000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>16400000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>18500000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-19000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-7200000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>102100000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-52300000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>150300000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>70500000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1200000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-36900000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-88600000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>11700000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-168100000</v>
+      </c>
+      <c r="C22">
         <v>-265800000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-477700000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-55300000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>103100000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>359100000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-482700000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>137800000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-55600000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-301600000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-25000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>96300000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>341500000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>35800000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-89000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-87000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-44100000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>789200000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>839500000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-44600000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>389800000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>367100000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-364200000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-223700000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>493300000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>53000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>173300000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-249500000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-105000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>157400000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-282900000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>178900000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>386400000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>207300000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-139500000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>408300000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>176200000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-174700000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-479600000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>418800000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>50300000</v>
+      </c>
+      <c r="C23">
         <v>-50800000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-50000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-23200000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-2000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-23300000</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>-14400000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>46400000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>35300000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10300000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-38700000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>34200000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-23900000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-3200000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3600000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-15800000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-10300000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-57200000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>38500000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>12600000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>33900000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>43200000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>14400000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-55100000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-17100000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-51700000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-8100000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-31800000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-37800000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>45400000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-50600000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-30200000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-38000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>12600000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2900000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>11200000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>39200000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-4300000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-31400000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>-8700000</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G24">
         <v>-8700000</v>
@@ -2921,182 +3050,188 @@
         <v>-8700000</v>
       </c>
       <c r="I24">
+        <v>-8700000</v>
+      </c>
+      <c r="J24">
         <v>-3600000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-100000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>9500000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-300000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>200000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-7700000</v>
-      </c>
-      <c r="P24">
-        <v>100000</v>
       </c>
       <c r="Q24">
         <v>100000</v>
       </c>
       <c r="R24">
+        <v>100000</v>
+      </c>
+      <c r="S24">
         <v>-98400000</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>-39300000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>-400000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>2300000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-10900000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-130700000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>208100000</v>
+      </c>
+      <c r="C25">
         <v>93200000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-481300000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-533000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-162400000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>572400000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-58800000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-43400000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>518700000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>49400000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>41700000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-471700000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>166900000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>99000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>167000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-537100000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-108900000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>80400000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-288400000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-395400000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>315500000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>228000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>41500000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-137500000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>125600000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>135100000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-8300000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-396900000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>260700000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>125000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>246000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-294500000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>161600000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>156600000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>217300000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-352500000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>156700000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>258300000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>31500000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>49200000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3105,11 +3240,11 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>2147100000</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3117,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1839300000</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
@@ -3129,11 +3264,11 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>1701200000</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
@@ -3141,11 +3276,11 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>1805400000</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0</v>
       </c>
@@ -3153,11 +3288,11 @@
         <v>0</v>
       </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>2517700000</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
@@ -3165,23 +3300,23 @@
         <v>0</v>
       </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>2070200000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>363300000</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>1851400000</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
       <c r="AD26">
         <v>0</v>
       </c>
@@ -3189,11 +3324,11 @@
         <v>0</v>
       </c>
       <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>1514200000</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
         <v>0</v>
       </c>
@@ -3201,11 +3336,11 @@
         <v>0</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>1331200000</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
         <v>0</v>
       </c>
@@ -3213,747 +3348,756 @@
         <v>0</v>
       </c>
       <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>835500000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>208100000</v>
+      </c>
+      <c r="C27">
         <v>93200000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-481300000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1614100000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-162400000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>572400000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-58800000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1795900000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>518700000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>49400000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>41700000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1229500000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>166900000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>99000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>167000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1268300000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-108900000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>80400000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-288400000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2122300000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>315500000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>228000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>41500000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1932700000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>488900000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>135100000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-8300000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1454500000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>260700000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>125000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>246000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1219700000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>161600000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>156600000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>217300000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>978700000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>156700000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>258300000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>31500000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>884700000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>26000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>27600000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>29500000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>34100000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>33200000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>34200000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>38600000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>50300000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>43000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>47800000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>47400000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>48700000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>49400000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>59600000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>49800000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>47900000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>42700000</v>
-      </c>
-      <c r="S28">
-        <v>40900000</v>
       </c>
       <c r="T28">
         <v>40900000</v>
       </c>
       <c r="U28">
+        <v>40900000</v>
+      </c>
+      <c r="V28">
         <v>40400000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>42400000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>43300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>49200000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>41300000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>39300000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>40400000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>38700000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>37400000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>36200000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>36000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>40700000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>33700000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>34300000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>33500000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>36500000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>30100000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>33600000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>35900000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>33500000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>249100000</v>
+      </c>
+      <c r="C29">
         <v>-85700000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-85600000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-77800000</v>
-      </c>
-      <c r="E29">
-        <v>-78800000</v>
       </c>
       <c r="F29">
         <v>-78800000</v>
       </c>
       <c r="G29">
+        <v>-78800000</v>
+      </c>
+      <c r="H29">
         <v>-78600000</v>
-      </c>
-      <c r="H29">
-        <v>-71500000</v>
       </c>
       <c r="I29">
         <v>-71500000</v>
       </c>
       <c r="J29">
+        <v>-71500000</v>
+      </c>
+      <c r="K29">
         <v>-71400000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-73600000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-140900000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-140800000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-142800000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-125400000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-120100000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-122300000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-124300000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-124400000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-119600000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-118900000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-119000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-118900000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-114800000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-114100000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-115700000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-117600000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-113000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-113700000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-116200000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-116500000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-108100000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-108300000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-108600000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-109100000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-98000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-100500000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-100800000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-101200000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-77200000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.8073</v>
+      </c>
+      <c r="C30">
         <v>1.1001</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.9978</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.7205</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.6901</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.2734</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.1194</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.6251</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.8949</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.4067</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.5007</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.8346</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.8501</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.8231000000000001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.6814</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.8310999999999999</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.8742</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.6217</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.572</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.3676</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.3067</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.3022</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.3028</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.383</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.3727</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.339</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.3954</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.2964</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.3931</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.4127</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.3457</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.3396</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.3002</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.2945</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2881</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.2969</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.2582</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.2784</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.2955</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.348</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>130200000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-294400000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-759400000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-488999500</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>55199200</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>123400400</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-405500000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>210900100</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>135899700</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>68100100</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-531399900</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>33700000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-8100000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>316800000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-370400000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-92400000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-79200000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>125700000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-347900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-99099900</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>112800000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-44800100</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-290100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-233600100</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>70100100</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-1299900</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-310700100</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>347100000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-182700000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>211700200</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-319600100</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-144800000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>175700000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>463900000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-444900000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-59499900</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>65999900</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>469100100</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-723000100</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-19200200</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-43499900</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-59900000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-211099600</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-338399900</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-56900300</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-110900000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3399900</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-86399900</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-284400100</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-382700000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-595200000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-142000100</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-525699900</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-354700000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-117800000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-843300000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-24800000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-277200000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-442699700</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-240400200</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>136299900</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-16700000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-207699700</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-233000200</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-247699900</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-47900000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-138899900</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-54000200</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-3899900</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-343500000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-331100000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-442900100</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-457699900</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-523100000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-336099900</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>86200000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-201400100</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>164500100</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>-59200000</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C33">
         <v>-59200000</v>
@@ -3989,256 +4133,259 @@
         <v>-59200000</v>
       </c>
       <c r="N33">
+        <v>-59200000</v>
+      </c>
+      <c r="O33">
         <v>-64400000</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
       <c r="P33">
         <v>0</v>
       </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>-5700000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1900000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-232500000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-2800000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-10500000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>114100000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-161700000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-6400000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-5800000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>187200000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-222100000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-14400000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-311600000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-65200000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-78600000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-2100000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-2800000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-7600000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-39300000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-5200000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-1300000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-4800000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-52500000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-110300000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-180700000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-82400000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-161600000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-288100000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-175000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-81000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-75900000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-47600000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-46600000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-46300000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-118100000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-345100000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>2200000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-69900000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-39800000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>-5700000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1900000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-232500000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-2800000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-10500000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>114100000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-161700000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-6400000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-5800000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>187200000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-222100000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-14400000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-311600000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-65200000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>-78600000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-2100000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>-2800000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-7600000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-39300000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-5200000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-1300000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-4800000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-52500000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-110300000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-180700000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>-82400000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-161600000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-288100000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-175000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-81000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-75900000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-47600000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>-46600000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>-46300000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>-118100000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>-345100000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>2200000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>-69900000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>-39800000</v>
       </c>
     </row>
